--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -25,7 +25,10 @@
     <t>ItemIdList</t>
   </si>
   <si>
-    <t>ItemQuanlityList</t>
+    <t>ItemCountList</t>
+  </si>
+  <si>
+    <t>ItemQualityList</t>
   </si>
   <si>
     <t>TargetName</t>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>1,300</t>
+  </si>
+  <si>
+    <t>5,0</t>
   </si>
   <si>
     <t>怒斩自选</t>
@@ -1081,25 +1087,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I11"/>
+  <dimension ref="C3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1121,8 +1127,11 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1144,7 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1144,171 +1153,195 @@
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" customHeight="1" spans="3:9">
+    <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:9">
+    <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:9">
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:9">
+    <row r="9" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="3:9">
+    <row r="10" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:9">
+    <row r="11" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 D4 E4 F4 D5 E5 F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,D3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>1,4005</t>
   </si>
   <si>
-    <t>1,300</t>
+    <t>1,150</t>
   </si>
   <si>
     <t>5,0</t>
@@ -1090,7 +1090,7 @@
   <dimension ref="C3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -1090,7 +1090,7 @@
   <dimension ref="C3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1089,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="C3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1102,7 +1115,7 @@
     <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>命运自选</t>
+  </si>
+  <si>
+    <t>1,300</t>
+  </si>
+  <si>
+    <t>专属自选8</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J11"/>
+  <dimension ref="C3:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1352,6 +1358,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" customHeight="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5" errorStyle="warning">

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>命运自选</t>
+  </si>
+  <si>
+    <t>升级自选</t>
   </si>
   <si>
     <t>1,300</t>
@@ -1106,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J12"/>
+  <dimension ref="C3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1366,21 +1369,47 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:10">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
         <v>21</v>
       </c>
     </row>

--- a/Excel/ExchangeConfig.xlsx
+++ b/Excel/ExchangeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制" sheetId="2" r:id="rId1"/>
@@ -27,21 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>ItemTypeList</t>
-  </si>
-  <si>
-    <t>ItemIdList</t>
-  </si>
-  <si>
-    <t>ItemCountList</t>
-  </si>
-  <si>
-    <t>ItemQualityList</t>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
   </si>
   <si>
     <t>TargetName</t>
@@ -56,61 +50,34 @@
     <t>int</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>1,4005</t>
-  </si>
-  <si>
-    <t>1,150</t>
-  </si>
-  <si>
-    <t>5,0</t>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t>怒斩自选</t>
   </si>
   <si>
-    <t>2,4005</t>
-  </si>
-  <si>
     <t>噬魂自选</t>
   </si>
   <si>
-    <t>3,4005</t>
-  </si>
-  <si>
     <t>血饮自选</t>
   </si>
   <si>
-    <t>4,4005</t>
-  </si>
-  <si>
     <t>屠龙自选</t>
   </si>
   <si>
-    <t>5,4005</t>
-  </si>
-  <si>
     <t>倚天自选</t>
   </si>
   <si>
-    <t>6,4005</t>
-  </si>
-  <si>
     <t>命运自选</t>
   </si>
   <si>
     <t>升级自选</t>
-  </si>
-  <si>
-    <t>1,300</t>
   </si>
   <si>
     <t>专属自选8</t>
@@ -1109,25 +1076,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J13"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="16383" width="9" style="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,23 +1103,17 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,259 +1123,199 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:10">
+    <row r="6" customHeight="1" spans="3:8">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:10">
+    <row r="7" customHeight="1" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:10">
+    <row r="8" customHeight="1" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="H8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:10">
+    <row r="9" customHeight="1" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:10">
+    <row r="10" customHeight="1" spans="3:8">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:10">
+    <row r="11" customHeight="1" spans="3:8">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="H11" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:10">
+    <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="H12" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:10">
+    <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="1">
+      <c r="H13" s="1">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 D4 E4 D5 E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,D3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
